--- a/old_latest_analysis.xlsx
+++ b/old_latest_analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="208">
   <si>
     <t>filename</t>
   </si>
@@ -447,125 +447,209 @@
     <t>2911mice_306Cont_E9B0.BLK.mat</t>
   </si>
   <si>
+    <t>cont_306_left</t>
+  </si>
+  <si>
+    <t>cont_329_left</t>
+  </si>
+  <si>
+    <t>cont_329_right</t>
+  </si>
+  <si>
+    <t>271117_mice329cont__E9B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>271117_mice329cont__E8B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>cont_330_right</t>
+  </si>
+  <si>
+    <t>cont_330_left</t>
+  </si>
+  <si>
+    <t>241117_mice330cont__E4B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>241117_mice330cont__E5B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>Artifact takes away view of raw image (manually cut image)</t>
+  </si>
+  <si>
+    <t>cont_308_right</t>
+  </si>
+  <si>
+    <t>cont_308_left</t>
+  </si>
+  <si>
+    <t>221117_mice308Cont__E16B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>221117_mice308Cont__E17B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>Bad signal</t>
+  </si>
+  <si>
+    <t>221117_mice308Cont__E15B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>cont_320_right</t>
+  </si>
+  <si>
+    <t>211117_mice320cont__E7B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>211117_mice320cont__E9B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>211117_mice320cont__E5B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>211117_mice320cont__E6B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>Vascular artifact, and contra a bit difussed. Try to avoid</t>
+  </si>
+  <si>
+    <t>cont_320_left</t>
+  </si>
+  <si>
+    <t>Very difussed signal, AVOID</t>
+  </si>
+  <si>
+    <t>cont_318_right</t>
+  </si>
+  <si>
+    <t>201117_mice318cont_E8B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>201117_mice318cont_E9B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>cont_318_left</t>
+  </si>
+  <si>
+    <t>cont_296_right</t>
+  </si>
+  <si>
+    <t>141117_mice296cont_E12B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>141117_mice296cont_E11B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>cont_296_left</t>
+  </si>
+  <si>
+    <t>131217_mice359cont__E9B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>cont_359_right</t>
+  </si>
+  <si>
+    <t>cont_359_left</t>
+  </si>
+  <si>
+    <t>131217_mice359cont__E13B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>Weak ipsi</t>
+  </si>
+  <si>
+    <t>mut_292_right</t>
+  </si>
+  <si>
+    <t>131117_mice292mut_E9B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>131117_mice292mut_E10B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>Weak contra</t>
+  </si>
+  <si>
+    <t>mut_369_right</t>
+  </si>
+  <si>
+    <t>mut_369_left</t>
+  </si>
+  <si>
+    <t>181217_mice369mut__E40B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>181217_mice369mut__E51B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>Very good for ilustration purpouses</t>
+  </si>
+  <si>
+    <t>One condition exp and weak ipsi, cant use for data analysis. But clear contra fenotype</t>
+  </si>
+  <si>
+    <t>mut_69_right</t>
+  </si>
+  <si>
+    <t>mut_69_left</t>
+  </si>
+  <si>
+    <t>mut_9_right</t>
+  </si>
+  <si>
+    <t>04032020Mice_mut__9_E11B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>04032020Mice_mut__9_E12B0.BLK.amt</t>
+  </si>
+  <si>
+    <t>17042018_Mutant__E21B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>17042018_Mutant__E20B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>mut_23_right</t>
+  </si>
+  <si>
+    <t>14072020Mice_mut_23_E22B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>14072020Mice_mut_23_E23B0.BLK.mat</t>
+  </si>
+  <si>
+    <t>had to decrease the hand made roi to see a segregated response</t>
+  </si>
+  <si>
+    <t>OK!!</t>
+  </si>
+  <si>
+    <t>with threshold at 0.80 it will be segregated</t>
+  </si>
+  <si>
+    <t>Repetir y afinar análisis</t>
+  </si>
+  <si>
+    <t>Selección de los animales de interés</t>
+  </si>
+  <si>
+    <t>Mutantes</t>
+  </si>
+  <si>
     <t>cont_306_right</t>
   </si>
   <si>
-    <t>cont_306_left</t>
-  </si>
-  <si>
-    <t>cont_329_left</t>
-  </si>
-  <si>
-    <t>cont_329_right</t>
-  </si>
-  <si>
-    <t>271117_mice329cont__E9B0.BLK.mat</t>
-  </si>
-  <si>
-    <t>271117_mice329cont__E8B0.BLK.mat</t>
-  </si>
-  <si>
-    <t>cont_330_right</t>
-  </si>
-  <si>
-    <t>cont_330_left</t>
-  </si>
-  <si>
-    <t>241117_mice330cont__E4B0.BLK.mat</t>
-  </si>
-  <si>
-    <t>241117_mice330cont__E5B0.BLK.mat</t>
-  </si>
-  <si>
-    <t>Artifact takes away view of raw image (manually cut image)</t>
-  </si>
-  <si>
-    <t>cont_308_right</t>
-  </si>
-  <si>
-    <t>cont_308_left</t>
-  </si>
-  <si>
-    <t>221117_mice308Cont__E16B0.BLK.mat</t>
-  </si>
-  <si>
-    <t>221117_mice308Cont__E17B0.BLK.mat</t>
-  </si>
-  <si>
-    <t>Bad signal</t>
-  </si>
-  <si>
-    <t>221117_mice308Cont__E15B0.BLK.mat</t>
-  </si>
-  <si>
-    <t>cont_320_right</t>
-  </si>
-  <si>
-    <t>211117_mice320cont__E7B0.BLK.mat</t>
-  </si>
-  <si>
-    <t>211117_mice320cont__E9B0.BLK.mat</t>
-  </si>
-  <si>
-    <t>211117_mice320cont__E5B0.BLK.mat</t>
-  </si>
-  <si>
-    <t>211117_mice320cont__E6B0.BLK.mat</t>
-  </si>
-  <si>
-    <t>Vascular artifact, and contra a bit difussed. Try to avoid</t>
-  </si>
-  <si>
-    <t>cont_320_left</t>
-  </si>
-  <si>
-    <t>Very difussed signal, AVOID</t>
-  </si>
-  <si>
-    <t>cont_318_right</t>
-  </si>
-  <si>
-    <t>201117_mice318cont_E8B0.BLK.mat</t>
-  </si>
-  <si>
-    <t>201117_mice318cont_E9B0.BLK.mat</t>
-  </si>
-  <si>
-    <t>cont_318_left</t>
-  </si>
-  <si>
-    <t>cont_296_right</t>
-  </si>
-  <si>
-    <t>141117_mice296cont_E12B0.BLK.mat</t>
-  </si>
-  <si>
-    <t>141117_mice296cont_E11B0.BLK.mat</t>
-  </si>
-  <si>
-    <t>cont_296_left</t>
-  </si>
-  <si>
-    <t>131217_mice359cont__E9B0.BLK.mat</t>
-  </si>
-  <si>
-    <t>cont_359_right</t>
-  </si>
-  <si>
-    <t>cont_359_left</t>
-  </si>
-  <si>
-    <t>131217_mice359cont__E13B0.BLK.mat</t>
-  </si>
-  <si>
-    <t>Weak ipsi</t>
+    <t>Controles</t>
+  </si>
+  <si>
+    <t>Very small ipsi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -599,7 +683,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,12 +705,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,6 +744,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -679,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -690,25 +780,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -989,21 +1085,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG83"/>
+  <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
     <col min="2" max="2" width="39.28515625" customWidth="1"/>
     <col min="3" max="3" width="48.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="60" customWidth="1"/>
+    <col min="7" max="7" width="78.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
@@ -1029,7 +1125,7 @@
     <col min="33" max="33" width="66.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1115,7 +1211,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1216,7 +1312,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1317,7 +1413,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1418,7 +1514,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="5" customFormat="1">
+    <row r="5" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>117</v>
       </c>
@@ -1519,7 +1615,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1620,7 +1716,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1721,7 +1817,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1822,7 +1918,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="5" customFormat="1">
+    <row r="9" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>78</v>
       </c>
@@ -1923,7 +2019,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2024,7 +2120,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="3" customFormat="1">
+    <row r="11" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -2125,7 +2221,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="3" customFormat="1">
+    <row r="12" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -2226,7 +2322,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="3" customFormat="1">
+    <row r="13" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -2327,7 +2423,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="3" customFormat="1">
+    <row r="14" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -2428,28 +2524,33 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D19" s="7"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="C39" s="10" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="25">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>81</v>
       </c>
@@ -2472,8 +2573,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="11" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -2492,8 +2593,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="11" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>96</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -2512,14 +2613,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C45" s="9"/>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="11" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
         <v>97</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -2534,12 +2635,12 @@
       <c r="E46" t="s">
         <v>91</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="11" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>98</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -2552,14 +2653,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="11" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -2572,8 +2673,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="11" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
         <v>100</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -2595,8 +2696,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="11" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
         <v>104</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -2605,8 +2706,11 @@
       <c r="C51" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="D51" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>105</v>
       </c>
@@ -2623,8 +2727,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="11" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
         <v>107</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -2643,28 +2747,28 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="13" customFormat="1">
-      <c r="A54" s="13" t="s">
+    <row r="54" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="G54" s="13" t="s">
+      <c r="G54" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="11" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
         <v>113</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -2680,8 +2784,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="11" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
         <v>116</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -2703,8 +2807,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="11" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
         <v>119</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -2726,8 +2830,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="11" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -2737,8 +2841,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="11" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
         <v>124</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -2748,8 +2852,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="11" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
         <v>125</v>
       </c>
       <c r="B60" t="s">
@@ -2765,25 +2869,25 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="15" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15" t="s">
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="11" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
         <v>133</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -2796,8 +2900,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="11" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -2810,266 +2914,790 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="11" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B65" s="16" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B65" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B66" s="16" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="15" t="s">
         <v>140</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="17" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="C67" s="15" t="s">
         <v>146</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>147</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>114</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="15" t="s">
         <v>146</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>114</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="17" t="s">
-        <v>148</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>114</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>114</v>
       </c>
       <c r="G70" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="18" t="s">
+      <c r="B71" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="17"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="17"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B73" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="18"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>156</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="12" customFormat="1">
-      <c r="A74" s="18" t="s">
+    <row r="74" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="G74" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C74" s="4" t="s">
+    </row>
+    <row r="77" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="G74" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="B75" s="12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="B76" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="20" customFormat="1">
-      <c r="A77" s="19" t="s">
+      <c r="G77" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="B77" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="G77" s="20" t="s">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" t="s">
+      <c r="B78" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="D78" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="D79" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="C80" t="s">
-        <v>173</v>
       </c>
       <c r="D80" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>174</v>
-      </c>
-      <c r="B81" t="s">
         <v>173</v>
       </c>
-      <c r="C81" t="s">
+      <c r="B81" s="4" t="s">
         <v>172</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="D81" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="B82" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C82" s="21" t="s">
+      <c r="B83" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="12" customFormat="1">
-      <c r="A83" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C83" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="G83" s="18" t="s">
+    <row r="84" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
         <v>179</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G85" s="22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>189</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>191</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D89" t="s">
+        <v>89</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="25">
+        <v>45149</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>203</v>
+      </c>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>204</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" t="s">
+        <v>101</v>
+      </c>
+      <c r="E103" t="s">
+        <v>91</v>
+      </c>
+      <c r="F103" t="s">
+        <v>93</v>
+      </c>
+      <c r="G103" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D105" t="s">
+        <v>101</v>
+      </c>
+      <c r="E105" t="s">
+        <v>89</v>
+      </c>
+      <c r="F105" t="s">
+        <v>93</v>
+      </c>
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" t="s">
+        <v>101</v>
+      </c>
+      <c r="E106" t="s">
+        <v>91</v>
+      </c>
+      <c r="F106" t="s">
+        <v>93</v>
+      </c>
+      <c r="G106" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>189</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D107" t="s">
+        <v>114</v>
+      </c>
+      <c r="G107" s="7"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>191</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D108" t="s">
+        <v>89</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>196</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F112" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F113" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D115" t="s">
+        <v>114</v>
+      </c>
+      <c r="F115" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D117" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>166</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D121" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B122" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G122" s="26" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/old_latest_analysis.xlsx
+++ b/old_latest_analysis.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="217">
   <si>
     <t>filename</t>
   </si>
@@ -643,6 +644,33 @@
   </si>
   <si>
     <t>Very small ipsi</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>**NO</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>Mutants</t>
+  </si>
+  <si>
+    <t>Controls</t>
   </si>
 </sst>
 </file>
@@ -769,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -805,6 +833,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG122"/>
+  <dimension ref="A1:AG161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:G55"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3390,7 +3421,7 @@
         <v>91</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G102" s="5"/>
     </row>
@@ -3489,6 +3520,9 @@
       <c r="D107" t="s">
         <v>114</v>
       </c>
+      <c r="F107" t="s">
+        <v>94</v>
+      </c>
       <c r="G107" s="7"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3504,6 +3538,9 @@
       <c r="D108" t="s">
         <v>89</v>
       </c>
+      <c r="F108" t="s">
+        <v>210</v>
+      </c>
       <c r="G108" s="7" t="s">
         <v>201</v>
       </c>
@@ -3521,6 +3558,9 @@
       <c r="D109" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="F109" t="s">
+        <v>211</v>
+      </c>
       <c r="G109" s="7" t="s">
         <v>199</v>
       </c>
@@ -3540,6 +3580,9 @@
       <c r="C112" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="D112" t="s">
+        <v>114</v>
+      </c>
       <c r="F112" t="s">
         <v>93</v>
       </c>
@@ -3554,6 +3597,9 @@
       <c r="C113" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="D113" t="s">
+        <v>114</v>
+      </c>
       <c r="F113" t="s">
         <v>93</v>
       </c>
@@ -3569,7 +3615,7 @@
         <v>112</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>111</v>
+        <v>209</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>109</v>
@@ -3606,6 +3652,12 @@
       <c r="C116" s="4" t="s">
         <v>137</v>
       </c>
+      <c r="D116" t="s">
+        <v>114</v>
+      </c>
+      <c r="F116" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
@@ -3620,6 +3672,9 @@
       <c r="D117" t="s">
         <v>114</v>
       </c>
+      <c r="F117" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
@@ -3634,6 +3689,9 @@
       <c r="D118" s="7" t="s">
         <v>114</v>
       </c>
+      <c r="F118" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
@@ -3648,6 +3706,9 @@
       <c r="D119" s="7" t="s">
         <v>114</v>
       </c>
+      <c r="F119" t="s">
+        <v>208</v>
+      </c>
       <c r="G119" s="7" t="s">
         <v>151</v>
       </c>
@@ -3665,6 +3726,9 @@
       <c r="D120" s="7" t="s">
         <v>114</v>
       </c>
+      <c r="F120" t="s">
+        <v>212</v>
+      </c>
       <c r="G120" s="7" t="s">
         <v>151</v>
       </c>
@@ -3682,6 +3746,9 @@
       <c r="D121" t="s">
         <v>114</v>
       </c>
+      <c r="F121" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="122" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
@@ -3696,12 +3763,282 @@
       <c r="D122" s="26" t="s">
         <v>114</v>
       </c>
+      <c r="F122" t="s">
+        <v>214</v>
+      </c>
       <c r="G122" s="26" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B148" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C148" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B157" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C157" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B158" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C158" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>